--- a/planning.xlsx
+++ b/planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="20880" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Lundi</t>
   </si>
@@ -38,12 +35,6 @@
     <t>Apres midi</t>
   </si>
   <si>
-    <t>Fonctionnement Clonage</t>
-  </si>
-  <si>
-    <t>Type de cable / commutateur</t>
-  </si>
-  <si>
     <t>Mardi</t>
   </si>
   <si>
@@ -56,32 +47,65 @@
     <t>Vendredi</t>
   </si>
   <si>
-    <t>Soutenance</t>
-  </si>
-  <si>
-    <t>Wifi composants</t>
-  </si>
-  <si>
-    <t>Plan de l'entreprise</t>
-  </si>
-  <si>
-    <t>Creation Maquette</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Topologie logique /physique</t>
-  </si>
-  <si>
-    <t>Mise en place clonnage</t>
-  </si>
-  <si>
-    <t>Mise en place wifi</t>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Composant</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Communtateur</t>
+  </si>
+  <si>
+    <t>Maquette</t>
+  </si>
+  <si>
+    <t>Plan Entreprise</t>
+  </si>
+  <si>
+    <t>Clonage</t>
+  </si>
+  <si>
+    <t>Fonctionnement</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
+  </si>
+  <si>
+    <t>Kerim</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Adressage IP</t>
+  </si>
+  <si>
+    <t>Création du devis</t>
+  </si>
+  <si>
+    <t>Prep' soutenance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,21 +113,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +141,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -148,24 +153,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,8 +235,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -209,18 +294,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -229,57 +305,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -289,57 +321,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,234 +677,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M12"/>
+  <dimension ref="B13:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="3" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="3" t="s">
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="3" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="3" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="23"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="23"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+  <mergeCells count="9">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="20880" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Lundi</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Prep' soutenance</t>
+  </si>
+  <si>
+    <t>Matériel annexe</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,19 +330,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -352,7 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -363,6 +365,23 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B13:N49"/>
+  <dimension ref="B13:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,195 +710,195 @@
   </cols>
   <sheetData>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="25"/>
+      <c r="J28" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="4" t="s">
+      <c r="K28" s="25"/>
+      <c r="L28" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
@@ -914,196 +933,203 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="23"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
-      <c r="C44" s="9"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="10" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="4725" yWindow="0" windowWidth="20880" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <t>Prep' soutenance</t>
   </si>
   <si>
-    <t>Matériel annexe</t>
+    <t>Composants annexes</t>
   </si>
 </sst>
 </file>
@@ -365,12 +365,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,8 +376,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,14 +698,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,26 +879,26 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24" t="s">
+      <c r="G28" s="30"/>
+      <c r="H28" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="24" t="s">
+      <c r="I28" s="30"/>
+      <c r="J28" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="24" t="s">
+      <c r="K28" s="30"/>
+      <c r="L28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="25"/>
+      <c r="M28" s="30"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
@@ -979,7 +979,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="15"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1003,9 +1003,9 @@
       <c r="C37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
@@ -1123,13 +1123,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="5655" yWindow="0" windowWidth="20880" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -367,6 +367,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,12 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +699,7 @@
   <dimension ref="B13:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,26 +879,26 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29" t="s">
+      <c r="E28" s="27"/>
+      <c r="F28" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29" t="s">
+      <c r="I28" s="27"/>
+      <c r="J28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29" t="s">
+      <c r="K28" s="27"/>
+      <c r="L28" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="30"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -947,7 +947,7 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
         <v>8</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
@@ -965,11 +965,11 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -983,7 +983,7 @@
       <c r="I34" s="15"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7" t="s">
         <v>11</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7" t="s">
         <v>12</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="7" t="s">
         <v>25</v>
       </c>
@@ -1095,10 +1095,10 @@
       <c r="C48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
@@ -1111,13 +1111,13 @@
       <c r="C50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
     </row>
